--- a/DATA/Export 2007-2024.xlsx
+++ b/DATA/Export 2007-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noxra\KMUTNB_internship\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7198320-CB40-43B6-A057-AAD0CE88B343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8A4B9E-FE4E-4D25-B597-9E0B4AFCBBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="253">
   <si>
     <t>Year (พ.ศ.)</t>
   </si>
@@ -211,6 +211,579 @@
   </si>
   <si>
     <t>Grand Total Value (Million Baht)</t>
+  </si>
+  <si>
+    <t>34.750</t>
+  </si>
+  <si>
+    <t>34.025</t>
+  </si>
+  <si>
+    <t>32.325</t>
+  </si>
+  <si>
+    <t>32.850</t>
+  </si>
+  <si>
+    <t>32.900</t>
+  </si>
+  <si>
+    <t>31.700</t>
+  </si>
+  <si>
+    <t>29.950</t>
+  </si>
+  <si>
+    <t>32.535</t>
+  </si>
+  <si>
+    <t>31.900</t>
+  </si>
+  <si>
+    <t>31.675</t>
+  </si>
+  <si>
+    <t>30.700</t>
+  </si>
+  <si>
+    <t>30.050</t>
+  </si>
+  <si>
+    <t>31.300</t>
+  </si>
+  <si>
+    <t>31.075</t>
+  </si>
+  <si>
+    <t>31.470</t>
+  </si>
+  <si>
+    <t>31.655</t>
+  </si>
+  <si>
+    <t>32.489</t>
+  </si>
+  <si>
+    <t>33.430</t>
+  </si>
+  <si>
+    <t>33.520</t>
+  </si>
+  <si>
+    <t>34.225</t>
+  </si>
+  <si>
+    <t>33.855</t>
+  </si>
+  <si>
+    <t>35.050</t>
+  </si>
+  <si>
+    <t>35.470</t>
+  </si>
+  <si>
+    <t>34.785</t>
+  </si>
+  <si>
+    <t>34.975</t>
+  </si>
+  <si>
+    <t>36.190</t>
+  </si>
+  <si>
+    <t>35.495</t>
+  </si>
+  <si>
+    <t>35.280</t>
+  </si>
+  <si>
+    <t>34.310</t>
+  </si>
+  <si>
+    <t>34.060</t>
+  </si>
+  <si>
+    <t>34.020</t>
+  </si>
+  <si>
+    <t>33.440</t>
+  </si>
+  <si>
+    <t>33.455</t>
+  </si>
+  <si>
+    <t>33.235</t>
+  </si>
+  <si>
+    <t>33.360</t>
+  </si>
+  <si>
+    <t>33.175</t>
+  </si>
+  <si>
+    <t>33.055</t>
+  </si>
+  <si>
+    <t>32.350</t>
+  </si>
+  <si>
+    <t>32.345</t>
+  </si>
+  <si>
+    <t>32.530</t>
+  </si>
+  <si>
+    <t>32.415</t>
+  </si>
+  <si>
+    <t>32.240</t>
+  </si>
+  <si>
+    <t>31.270</t>
+  </si>
+  <si>
+    <t>30.345</t>
+  </si>
+  <si>
+    <t>29.940</t>
+  </si>
+  <si>
+    <t>30.185</t>
+  </si>
+  <si>
+    <t>30.065</t>
+  </si>
+  <si>
+    <t>30.905</t>
+  </si>
+  <si>
+    <t>30.595</t>
+  </si>
+  <si>
+    <t>30.255</t>
+  </si>
+  <si>
+    <t>29.850</t>
+  </si>
+  <si>
+    <t>30.300</t>
+  </si>
+  <si>
+    <t>29.750</t>
+  </si>
+  <si>
+    <t>29.930</t>
+  </si>
+  <si>
+    <t>31.170</t>
+  </si>
+  <si>
+    <t>30.840</t>
+  </si>
+  <si>
+    <t>31.520</t>
+  </si>
+  <si>
+    <t>30.970</t>
+  </si>
+  <si>
+    <t>30.440</t>
+  </si>
+  <si>
+    <t>30.830</t>
+  </si>
+  <si>
+    <t>30.720</t>
+  </si>
+  <si>
+    <t>31.840</t>
+  </si>
+  <si>
+    <t>31.540</t>
+  </si>
+  <si>
+    <t>31.500</t>
+  </si>
+  <si>
+    <t>31.320</t>
+  </si>
+  <si>
+    <t>30.810</t>
+  </si>
+  <si>
+    <t>30.690</t>
+  </si>
+  <si>
+    <t>30.580</t>
+  </si>
+  <si>
+    <t>29.800</t>
+  </si>
+  <si>
+    <t>29.760</t>
+  </si>
+  <si>
+    <t>29.280</t>
+  </si>
+  <si>
+    <t>29.260</t>
+  </si>
+  <si>
+    <t>30.410</t>
+  </si>
+  <si>
+    <t>31.120</t>
+  </si>
+  <si>
+    <t>31.340</t>
+  </si>
+  <si>
+    <t>32.130</t>
+  </si>
+  <si>
+    <t>31.210</t>
+  </si>
+  <si>
+    <t>31.140</t>
+  </si>
+  <si>
+    <t>32.030</t>
+  </si>
+  <si>
+    <t>32.680</t>
+  </si>
+  <si>
+    <t>33.010</t>
+  </si>
+  <si>
+    <t>32.520</t>
+  </si>
+  <si>
+    <t>32.390</t>
+  </si>
+  <si>
+    <t>32.340</t>
+  </si>
+  <si>
+    <t>32.810</t>
+  </si>
+  <si>
+    <t>32.410</t>
+  </si>
+  <si>
+    <t>32.180</t>
+  </si>
+  <si>
+    <t>31.920</t>
+  </si>
+  <si>
+    <t>32.420</t>
+  </si>
+  <si>
+    <t>32.580</t>
+  </si>
+  <si>
+    <t>32.720</t>
+  </si>
+  <si>
+    <t>33.690</t>
+  </si>
+  <si>
+    <t>33.790</t>
+  </si>
+  <si>
+    <t>34.990</t>
+  </si>
+  <si>
+    <t>35.820</t>
+  </si>
+  <si>
+    <t>36.360</t>
+  </si>
+  <si>
+    <t>35.590</t>
+  </si>
+  <si>
+    <t>35.790</t>
+  </si>
+  <si>
+    <t>36.020</t>
+  </si>
+  <si>
+    <t>35.710</t>
+  </si>
+  <si>
+    <t>35.610</t>
+  </si>
+  <si>
+    <t>35.100</t>
+  </si>
+  <si>
+    <t>34.890</t>
+  </si>
+  <si>
+    <t>35.760</t>
+  </si>
+  <si>
+    <t>34.760</t>
+  </si>
+  <si>
+    <t>34.620</t>
+  </si>
+  <si>
+    <t>34.580</t>
+  </si>
+  <si>
+    <t>35.020</t>
+  </si>
+  <si>
+    <t>35.690</t>
+  </si>
+  <si>
+    <t>35.840</t>
+  </si>
+  <si>
+    <t>35.080</t>
+  </si>
+  <si>
+    <t>34.930</t>
+  </si>
+  <si>
+    <t>34.340</t>
+  </si>
+  <si>
+    <t>34.030</t>
+  </si>
+  <si>
+    <t>33.920</t>
+  </si>
+  <si>
+    <t>33.290</t>
+  </si>
+  <si>
+    <t>33.170</t>
+  </si>
+  <si>
+    <t>33.320</t>
+  </si>
+  <si>
+    <t>33.220</t>
+  </si>
+  <si>
+    <t>32.640</t>
+  </si>
+  <si>
+    <t>32.550</t>
+  </si>
+  <si>
+    <t>31.480</t>
+  </si>
+  <si>
+    <t>32.050</t>
+  </si>
+  <si>
+    <t>33.020</t>
+  </si>
+  <si>
+    <t>33.190</t>
+  </si>
+  <si>
+    <t>32.750</t>
+  </si>
+  <si>
+    <t>32.320</t>
+  </si>
+  <si>
+    <t>33.110</t>
+  </si>
+  <si>
+    <t>32.960</t>
+  </si>
+  <si>
+    <t>32.330</t>
+  </si>
+  <si>
+    <t>31.200</t>
+  </si>
+  <si>
+    <t>31.570</t>
+  </si>
+  <si>
+    <t>31.720</t>
+  </si>
+  <si>
+    <t>31.890</t>
+  </si>
+  <si>
+    <t>30.680</t>
+  </si>
+  <si>
+    <t>30.600</t>
+  </si>
+  <si>
+    <t>30.590</t>
+  </si>
+  <si>
+    <t>30.180</t>
+  </si>
+  <si>
+    <t>30.190</t>
+  </si>
+  <si>
+    <t>31.510</t>
+  </si>
+  <si>
+    <t>32.740</t>
+  </si>
+  <si>
+    <t>32.450</t>
+  </si>
+  <si>
+    <t>31.810</t>
+  </si>
+  <si>
+    <t>30.900</t>
+  </si>
+  <si>
+    <t>31.250</t>
+  </si>
+  <si>
+    <t>31.070</t>
+  </si>
+  <si>
+    <t>31.600</t>
+  </si>
+  <si>
+    <t>30.280</t>
+  </si>
+  <si>
+    <t>30.040</t>
+  </si>
+  <si>
+    <t>29.860</t>
+  </si>
+  <si>
+    <t>30.470</t>
+  </si>
+  <si>
+    <t>31.240</t>
+  </si>
+  <si>
+    <t>31.190</t>
+  </si>
+  <si>
+    <t>32.020</t>
+  </si>
+  <si>
+    <t>32.890</t>
+  </si>
+  <si>
+    <t>32.220</t>
+  </si>
+  <si>
+    <t>33.670</t>
+  </si>
+  <si>
+    <t>33.710</t>
+  </si>
+  <si>
+    <t>33.230</t>
+  </si>
+  <si>
+    <t>32.670</t>
+  </si>
+  <si>
+    <t>33.280</t>
+  </si>
+  <si>
+    <t>34.240</t>
+  </si>
+  <si>
+    <t>34.300</t>
+  </si>
+  <si>
+    <t>35.300</t>
+  </si>
+  <si>
+    <t>36.290</t>
+  </si>
+  <si>
+    <t>36.520</t>
+  </si>
+  <si>
+    <t>37.770</t>
+  </si>
+  <si>
+    <t>38.050</t>
+  </si>
+  <si>
+    <t>35.110</t>
+  </si>
+  <si>
+    <t>34.610</t>
+  </si>
+  <si>
+    <t>32.840</t>
+  </si>
+  <si>
+    <t>35.220</t>
+  </si>
+  <si>
+    <t>34.160</t>
+  </si>
+  <si>
+    <t>34.120</t>
+  </si>
+  <si>
+    <t>34.640</t>
+  </si>
+  <si>
+    <t>35.270</t>
+  </si>
+  <si>
+    <t>34.210</t>
+  </si>
+  <si>
+    <t>34.980</t>
+  </si>
+  <si>
+    <t>36.510</t>
+  </si>
+  <si>
+    <t>36.140</t>
+  </si>
+  <si>
+    <t>35.310</t>
+  </si>
+  <si>
+    <t>34.350</t>
+  </si>
+  <si>
+    <t>35.530</t>
+  </si>
+  <si>
+    <t>35.880</t>
+  </si>
+  <si>
+    <t>36.370</t>
+  </si>
+  <si>
+    <t>37.180</t>
+  </si>
+  <si>
+    <t>36.770</t>
+  </si>
+  <si>
+    <t>36.760</t>
+  </si>
+  <si>
+    <t>34.270</t>
+  </si>
+  <si>
+    <t>34.260</t>
+  </si>
+  <si>
+    <t>Price baht to usd</t>
   </si>
 </sst>
 </file>
@@ -1936,15 +2509,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ217"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="A207" sqref="A207:B217"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="BK2" sqref="BK1:BK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="63" max="63" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="211.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:63" ht="211.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="230" t="s">
         <v>0</v>
       </c>
@@ -2131,8 +2707,11 @@
       <c r="BJ1" s="24" t="s">
         <v>61</v>
       </c>
+      <c r="BK1" t="s">
+        <v>252</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" ht="21.6" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" ht="21.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="233">
         <v>2550</v>
       </c>
@@ -2315,8 +2894,11 @@
       <c r="BJ2" s="35">
         <v>14562.65</v>
       </c>
+      <c r="BK2" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="233">
         <v>2550</v>
       </c>
@@ -2499,8 +3081,11 @@
       <c r="BJ3" s="45">
         <v>15295.19</v>
       </c>
+      <c r="BK3" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="233">
         <v>2550</v>
       </c>
@@ -2683,8 +3268,11 @@
       <c r="BJ4" s="45">
         <v>17811.330000000002</v>
       </c>
+      <c r="BK4" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="233">
         <v>2550</v>
       </c>
@@ -2867,8 +3455,11 @@
       <c r="BJ5" s="45">
         <v>14369.74</v>
       </c>
+      <c r="BK5" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="233">
         <v>2550</v>
       </c>
@@ -3051,8 +3642,11 @@
       <c r="BJ6" s="45">
         <v>17047.87</v>
       </c>
+      <c r="BK6" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="233">
         <v>2550</v>
       </c>
@@ -3235,8 +3829,11 @@
       <c r="BJ7" s="45">
         <v>16817.580000000002</v>
       </c>
+      <c r="BK7" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="233">
         <v>2550</v>
       </c>
@@ -3419,8 +4016,11 @@
       <c r="BJ8" s="45">
         <v>16511.490000000002</v>
       </c>
+      <c r="BK8" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="233">
         <v>2550</v>
       </c>
@@ -3603,8 +4203,11 @@
       <c r="BJ9" s="45">
         <v>18631.689999999999</v>
       </c>
+      <c r="BK9" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="233">
         <v>2550</v>
       </c>
@@ -3787,8 +4390,11 @@
       <c r="BJ10" s="45">
         <v>18730.71</v>
       </c>
+      <c r="BK10" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="233">
         <v>2550</v>
       </c>
@@ -3971,8 +4577,11 @@
       <c r="BJ11" s="45">
         <v>19519.5</v>
       </c>
+      <c r="BK11" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="233">
         <v>2550</v>
       </c>
@@ -4155,8 +4764,11 @@
       <c r="BJ12" s="45">
         <v>19822.48</v>
       </c>
+      <c r="BK12" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="13" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="233">
         <v>2550</v>
       </c>
@@ -4339,8 +4951,11 @@
       <c r="BJ13" s="45">
         <v>16746.47</v>
       </c>
+      <c r="BK13" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="14" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="235">
         <v>2551</v>
       </c>
@@ -4523,8 +5138,11 @@
       <c r="BJ14" s="58">
         <v>16057.08</v>
       </c>
+      <c r="BK14" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="15" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="235">
         <v>2551</v>
       </c>
@@ -4707,8 +5325,11 @@
       <c r="BJ15" s="58">
         <v>15277.18</v>
       </c>
+      <c r="BK15" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="16" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="235">
         <v>2551</v>
       </c>
@@ -4891,8 +5512,11 @@
       <c r="BJ16" s="58">
         <v>16991.54</v>
       </c>
+      <c r="BK16" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="17" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="235">
         <v>2551</v>
       </c>
@@ -5075,8 +5699,11 @@
       <c r="BJ17" s="58">
         <v>16436.21</v>
       </c>
+      <c r="BK17" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="18" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="235">
         <v>2551</v>
       </c>
@@ -5259,8 +5886,11 @@
       <c r="BJ18" s="58">
         <v>18279.72</v>
       </c>
+      <c r="BK18" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="19" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="235">
         <v>2551</v>
       </c>
@@ -5443,8 +6073,11 @@
       <c r="BJ19" s="58">
         <v>18215.37</v>
       </c>
+      <c r="BK19" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="20" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="235">
         <v>2551</v>
       </c>
@@ -5627,8 +6260,11 @@
       <c r="BJ20" s="58">
         <v>21335.82</v>
       </c>
+      <c r="BK20" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="21" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="235">
         <v>2551</v>
       </c>
@@ -5811,8 +6447,11 @@
       <c r="BJ21" s="58">
         <v>21546.91</v>
       </c>
+      <c r="BK21" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="22" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="235">
         <v>2551</v>
       </c>
@@ -5995,8 +6634,11 @@
       <c r="BJ22" s="58">
         <v>21304.31</v>
       </c>
+      <c r="BK22" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="23" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="235">
         <v>2551</v>
       </c>
@@ -6179,8 +6821,11 @@
       <c r="BJ23" s="58">
         <v>23647.56</v>
       </c>
+      <c r="BK23" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="24" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="235">
         <v>2551</v>
       </c>
@@ -6363,8 +7008,11 @@
       <c r="BJ24" s="58">
         <v>20792.3</v>
       </c>
+      <c r="BK24" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="25" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="235">
         <v>2551</v>
       </c>
@@ -6547,8 +7195,11 @@
       <c r="BJ25" s="58">
         <v>18333.650000000001</v>
       </c>
+      <c r="BK25" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="26" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="237">
         <v>2552</v>
       </c>
@@ -6731,8 +7382,11 @@
       <c r="BJ26" s="71">
         <v>15085.79</v>
       </c>
+      <c r="BK26" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="27" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="237">
         <v>2552</v>
       </c>
@@ -6915,8 +7569,11 @@
       <c r="BJ27" s="71">
         <v>15226.44</v>
       </c>
+      <c r="BK27" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="28" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="237">
         <v>2552</v>
       </c>
@@ -7099,8 +7756,11 @@
       <c r="BJ28" s="71">
         <v>16837.8</v>
       </c>
+      <c r="BK28" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="29" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="237">
         <v>2552</v>
       </c>
@@ -7283,8 +7943,11 @@
       <c r="BJ29" s="71">
         <v>16995.099999999999</v>
       </c>
+      <c r="BK29" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="30" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="237">
         <v>2552</v>
       </c>
@@ -7467,8 +8130,11 @@
       <c r="BJ30" s="71">
         <v>18387.93</v>
       </c>
+      <c r="BK30" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="31" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="237">
         <v>2552</v>
       </c>
@@ -7651,8 +8317,11 @@
       <c r="BJ31" s="71">
         <v>18945.830000000002</v>
       </c>
+      <c r="BK31" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="32" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="237">
         <v>2552</v>
       </c>
@@ -7835,8 +8504,11 @@
       <c r="BJ32" s="71">
         <v>20722.89</v>
       </c>
+      <c r="BK32" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="33" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="237">
         <v>2552</v>
       </c>
@@ -8019,8 +8691,11 @@
       <c r="BJ33" s="71">
         <v>19484.169999999998</v>
       </c>
+      <c r="BK33" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="34" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="237">
         <v>2552</v>
       </c>
@@ -8203,8 +8878,11 @@
       <c r="BJ34" s="71">
         <v>21099.3</v>
       </c>
+      <c r="BK34" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="35" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="237">
         <v>2552</v>
       </c>
@@ -8387,8 +9065,11 @@
       <c r="BJ35" s="71">
         <v>22469.599999999999</v>
       </c>
+      <c r="BK35" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="36" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="237">
         <v>2552</v>
       </c>
@@ -8571,8 +9252,11 @@
       <c r="BJ36" s="71">
         <v>19982.599999999999</v>
       </c>
+      <c r="BK36" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="37" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="237">
         <v>2552</v>
       </c>
@@ -8755,8 +9439,11 @@
       <c r="BJ37" s="71">
         <v>19275.16</v>
       </c>
+      <c r="BK37" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="38" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="239">
         <v>2553</v>
       </c>
@@ -8939,8 +9626,11 @@
       <c r="BJ38" s="83">
         <v>16952.330000000002</v>
       </c>
+      <c r="BK38" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="39" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="239">
         <v>2553</v>
       </c>
@@ -9123,8 +9813,11 @@
       <c r="BJ39" s="83">
         <v>16616.150000000001</v>
       </c>
+      <c r="BK39" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="40" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="239">
         <v>2553</v>
       </c>
@@ -9307,8 +10000,11 @@
       <c r="BJ40" s="83">
         <v>19955.169999999998</v>
       </c>
+      <c r="BK40" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="41" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="239">
         <v>2553</v>
       </c>
@@ -9491,8 +10187,11 @@
       <c r="BJ41" s="83">
         <v>15998.3</v>
       </c>
+      <c r="BK41" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="42" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="239">
         <v>2553</v>
       </c>
@@ -9675,8 +10374,11 @@
       <c r="BJ42" s="83">
         <v>18623.64</v>
       </c>
+      <c r="BK42" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="43" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="239">
         <v>2553</v>
       </c>
@@ -9859,8 +10561,11 @@
       <c r="BJ43" s="83">
         <v>22790.23</v>
       </c>
+      <c r="BK43" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="44" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="239">
         <v>2553</v>
       </c>
@@ -10043,8 +10748,11 @@
       <c r="BJ44" s="83">
         <v>20850.78</v>
       </c>
+      <c r="BK44" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="45" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="239">
         <v>2553</v>
       </c>
@@ -10227,8 +10935,11 @@
       <c r="BJ45" s="83">
         <v>20175.84</v>
       </c>
+      <c r="BK45" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="46" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="239">
         <v>2553</v>
       </c>
@@ -10411,8 +11122,11 @@
       <c r="BJ46" s="83">
         <v>21309.7</v>
       </c>
+      <c r="BK46" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="47" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="239">
         <v>2553</v>
       </c>
@@ -10595,8 +11309,11 @@
       <c r="BJ47" s="83">
         <v>21922.23</v>
       </c>
+      <c r="BK47" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="48" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="239">
         <v>2553</v>
       </c>
@@ -10779,8 +11496,11 @@
       <c r="BJ48" s="83">
         <v>21191.200000000001</v>
       </c>
+      <c r="BK48" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="49" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="239">
         <v>2553</v>
       </c>
@@ -10963,8 +11683,11 @@
       <c r="BJ49" s="83">
         <v>20516.57</v>
       </c>
+      <c r="BK49" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="50" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="241">
         <v>2554</v>
       </c>
@@ -11147,8 +11870,11 @@
       <c r="BJ50" s="96">
         <v>16954.03</v>
       </c>
+      <c r="BK50" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="51" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="241">
         <v>2554</v>
       </c>
@@ -11331,8 +12057,11 @@
       <c r="BJ51" s="96">
         <v>17437.72</v>
       </c>
+      <c r="BK51" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="52" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="241">
         <v>2554</v>
       </c>
@@ -11515,8 +12244,11 @@
       <c r="BJ52" s="96">
         <v>21532.959999999999</v>
       </c>
+      <c r="BK52" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="53" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="241">
         <v>2554</v>
       </c>
@@ -11699,8 +12431,11 @@
       <c r="BJ53" s="96">
         <v>17814.04</v>
       </c>
+      <c r="BK53" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="54" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="241">
         <v>2554</v>
       </c>
@@ -11883,8 +12618,11 @@
       <c r="BJ54" s="96">
         <v>20535.39</v>
       </c>
+      <c r="BK54" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="55" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="241">
         <v>2554</v>
       </c>
@@ -12067,8 +12805,11 @@
       <c r="BJ55" s="96">
         <v>23011.09</v>
       </c>
+      <c r="BK55" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="56" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="241">
         <v>2554</v>
       </c>
@@ -12251,8 +12992,11 @@
       <c r="BJ56" s="96">
         <v>23190.87</v>
       </c>
+      <c r="BK56" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="57" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="241">
         <v>2554</v>
       </c>
@@ -12435,8 +13179,11 @@
       <c r="BJ57" s="96">
         <v>24211.27</v>
       </c>
+      <c r="BK57" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="58" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="241">
         <v>2554</v>
       </c>
@@ -12619,8 +13366,11 @@
       <c r="BJ58" s="96">
         <v>23996.240000000002</v>
       </c>
+      <c r="BK58" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="59" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="241">
         <v>2554</v>
       </c>
@@ -12803,8 +13553,11 @@
       <c r="BJ59" s="96">
         <v>24699.24</v>
       </c>
+      <c r="BK59" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="60" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="241">
         <v>2554</v>
       </c>
@@ -12987,8 +13740,11 @@
       <c r="BJ60" s="96">
         <v>23791.65</v>
       </c>
+      <c r="BK60" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="61" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="241">
         <v>2554</v>
       </c>
@@ -13171,8 +13927,11 @@
       <c r="BJ61" s="96">
         <v>22689.31</v>
       </c>
+      <c r="BK61" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="62" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="243">
         <v>2555</v>
       </c>
@@ -13359,8 +14118,11 @@
       <c r="BJ62" s="110">
         <v>17077.66</v>
       </c>
+      <c r="BK62" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="63" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="243">
         <v>2555</v>
       </c>
@@ -13547,8 +14309,11 @@
       <c r="BJ63" s="110">
         <v>20305.38</v>
       </c>
+      <c r="BK63" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="64" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="243">
         <v>2555</v>
       </c>
@@ -13735,8 +14500,11 @@
       <c r="BJ64" s="110">
         <v>22244.89</v>
       </c>
+      <c r="BK64" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="65" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="243">
         <v>2555</v>
       </c>
@@ -13923,8 +14691,11 @@
       <c r="BJ65" s="110">
         <v>17707.150000000001</v>
       </c>
+      <c r="BK65" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="66" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="243">
         <v>2555</v>
       </c>
@@ -14111,8 +14882,11 @@
       <c r="BJ66" s="110">
         <v>23475.77</v>
       </c>
+      <c r="BK66" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="67" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="243">
         <v>2555</v>
       </c>
@@ -14299,8 +15073,11 @@
       <c r="BJ67" s="110">
         <v>23084.38</v>
       </c>
+      <c r="BK67" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="68" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="243">
         <v>2555</v>
       </c>
@@ -14487,8 +15264,11 @@
       <c r="BJ68" s="110">
         <v>24169.5</v>
       </c>
+      <c r="BK68" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="69" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="243">
         <v>2555</v>
       </c>
@@ -14675,8 +15455,11 @@
       <c r="BJ69" s="110">
         <v>23388.67</v>
       </c>
+      <c r="BK69" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="70" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="243">
         <v>2555</v>
       </c>
@@ -14863,8 +15646,11 @@
       <c r="BJ70" s="110">
         <v>23321.55</v>
       </c>
+      <c r="BK70" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="71" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="243">
         <v>2555</v>
       </c>
@@ -15051,8 +15837,11 @@
       <c r="BJ71" s="110">
         <v>23708.3</v>
       </c>
+      <c r="BK71" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="72" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="243">
         <v>2555</v>
       </c>
@@ -15239,8 +16028,11 @@
       <c r="BJ72" s="110">
         <v>24621.98</v>
       </c>
+      <c r="BK72" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="73" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="243">
         <v>2555</v>
       </c>
@@ -15427,8 +16219,11 @@
       <c r="BJ73" s="110">
         <v>21313.31</v>
       </c>
+      <c r="BK73" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="74" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="245">
         <v>2556</v>
       </c>
@@ -15615,8 +16410,11 @@
       <c r="BJ74" s="127">
         <v>18907.599999999999</v>
       </c>
+      <c r="BK74" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="75" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="245">
         <v>2556</v>
       </c>
@@ -15803,8 +16601,11 @@
       <c r="BJ75" s="127">
         <v>17797.45</v>
       </c>
+      <c r="BK75" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="76" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="245">
         <v>2556</v>
       </c>
@@ -15991,8 +16792,11 @@
       <c r="BJ76" s="127">
         <v>19744.669999999998</v>
       </c>
+      <c r="BK76" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="77" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="245">
         <v>2556</v>
       </c>
@@ -16179,8 +16983,11 @@
       <c r="BJ77" s="127">
         <v>16578.63</v>
       </c>
+      <c r="BK77" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="78" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="245">
         <v>2556</v>
       </c>
@@ -16367,8 +17174,11 @@
       <c r="BJ78" s="127">
         <v>18744.78</v>
       </c>
+      <c r="BK78" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="79" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="245">
         <v>2556</v>
       </c>
@@ -16555,8 +17365,11 @@
       <c r="BJ79" s="127">
         <v>17906.89</v>
       </c>
+      <c r="BK79" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="80" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="245">
         <v>2556</v>
       </c>
@@ -16743,8 +17556,11 @@
       <c r="BJ80" s="135">
         <v>0</v>
       </c>
+      <c r="BK80" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="81" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="245">
         <v>2556</v>
       </c>
@@ -16931,8 +17747,11 @@
       <c r="BJ81" s="127">
         <v>19421.3</v>
       </c>
+      <c r="BK81" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="82" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="245">
         <v>2556</v>
       </c>
@@ -17119,8 +17938,11 @@
       <c r="BJ82" s="127">
         <v>19887.89</v>
       </c>
+      <c r="BK82" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="83" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="245">
         <v>2556</v>
       </c>
@@ -17307,8 +18129,11 @@
       <c r="BJ83" s="127">
         <v>21475.279999999999</v>
       </c>
+      <c r="BK83" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="84" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="245">
         <v>2556</v>
       </c>
@@ -17495,8 +18320,11 @@
       <c r="BJ84" s="127">
         <v>21441.81</v>
       </c>
+      <c r="BK84" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="85" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="245">
         <v>2556</v>
       </c>
@@ -17683,8 +18511,11 @@
       <c r="BJ85" s="143">
         <v>17442.05</v>
       </c>
+      <c r="BK85" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="86" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="247">
         <v>2557</v>
       </c>
@@ -17871,8 +18702,11 @@
       <c r="BJ86" s="154">
         <v>18100.84</v>
       </c>
+      <c r="BK86" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="87" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="247">
         <v>2557</v>
       </c>
@@ -18059,8 +18893,11 @@
       <c r="BJ87" s="154">
         <v>17085.73</v>
       </c>
+      <c r="BK87" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="88" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="247">
         <v>2557</v>
       </c>
@@ -18247,8 +19084,11 @@
       <c r="BJ88" s="154">
         <v>18957.07</v>
       </c>
+      <c r="BK88" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="89" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="247">
         <v>2557</v>
       </c>
@@ -18435,8 +19275,11 @@
       <c r="BJ89" s="154">
         <v>16913.61</v>
       </c>
+      <c r="BK89" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="90" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="247">
         <v>2557</v>
       </c>
@@ -18623,8 +19466,11 @@
       <c r="BJ90" s="154">
         <v>18141.39</v>
       </c>
+      <c r="BK90" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="91" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A91" s="247">
         <v>2557</v>
       </c>
@@ -18811,8 +19657,11 @@
       <c r="BJ91" s="154">
         <v>18427.490000000002</v>
       </c>
+      <c r="BK91" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="92" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="247">
         <v>2557</v>
       </c>
@@ -18999,8 +19848,11 @@
       <c r="BJ92" s="154">
         <v>19888.77</v>
       </c>
+      <c r="BK92" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="93" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="247">
         <v>2557</v>
       </c>
@@ -19187,8 +20039,11 @@
       <c r="BJ93" s="154">
         <v>18223.68</v>
       </c>
+      <c r="BK93" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="94" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="247">
         <v>2557</v>
       </c>
@@ -19375,8 +20230,11 @@
       <c r="BJ94" s="154">
         <v>19853.53</v>
       </c>
+      <c r="BK94" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="95" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="247">
         <v>2557</v>
       </c>
@@ -19563,8 +20421,11 @@
       <c r="BJ95" s="154">
         <v>23204.77</v>
       </c>
+      <c r="BK95" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="96" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A96" s="247">
         <v>2557</v>
       </c>
@@ -19751,8 +20612,11 @@
       <c r="BJ96" s="154">
         <v>20410.349999999999</v>
       </c>
+      <c r="BK96" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="97" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="247">
         <v>2557</v>
       </c>
@@ -19939,8 +20803,11 @@
       <c r="BJ97" s="154">
         <v>18653.27</v>
       </c>
+      <c r="BK97" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="98" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="249">
         <v>2558</v>
       </c>
@@ -20127,8 +20994,11 @@
       <c r="BJ98" s="165">
         <v>16893.82</v>
       </c>
+      <c r="BK98" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="99" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A99" s="249">
         <v>2558</v>
       </c>
@@ -20315,8 +21185,11 @@
       <c r="BJ99" s="165">
         <v>14994.79</v>
       </c>
+      <c r="BK99" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="100" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A100" s="249">
         <v>2558</v>
       </c>
@@ -20503,8 +21376,11 @@
       <c r="BJ100" s="165">
         <v>17304.37</v>
       </c>
+      <c r="BK100" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="101" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A101" s="249">
         <v>2558</v>
       </c>
@@ -20691,8 +21567,11 @@
       <c r="BJ101" s="165">
         <v>15311.86</v>
       </c>
+      <c r="BK101" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="102" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="249">
         <v>2558</v>
       </c>
@@ -20879,8 +21758,11 @@
       <c r="BJ102" s="165">
         <v>16320.06</v>
       </c>
+      <c r="BK102" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="103" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="249">
         <v>2558</v>
       </c>
@@ -21067,8 +21949,11 @@
       <c r="BJ103" s="165">
         <v>16867.64</v>
       </c>
+      <c r="BK103" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="104" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="249">
         <v>2558</v>
       </c>
@@ -21255,8 +22140,11 @@
       <c r="BJ104" s="165">
         <v>17145.830000000002</v>
       </c>
+      <c r="BK104" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="105" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="249">
         <v>2558</v>
       </c>
@@ -21443,8 +22331,11 @@
       <c r="BJ105" s="165">
         <v>17100.71</v>
       </c>
+      <c r="BK105" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="106" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="249">
         <v>2558</v>
       </c>
@@ -21631,8 +22522,11 @@
       <c r="BJ106" s="165">
         <v>18848.080000000002</v>
       </c>
+      <c r="BK106" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="107" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="249">
         <v>2558</v>
       </c>
@@ -21819,8 +22713,11 @@
       <c r="BJ107" s="165">
         <v>19390.88</v>
       </c>
+      <c r="BK107" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="108" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="249">
         <v>2558</v>
       </c>
@@ -22007,8 +22904,11 @@
       <c r="BJ108" s="165">
         <v>18920.3</v>
       </c>
+      <c r="BK108" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="109" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="249">
         <v>2558</v>
       </c>
@@ -22195,8 +23095,11 @@
       <c r="BJ109" s="165">
         <v>19050.240000000002</v>
       </c>
+      <c r="BK109" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="110" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A110" s="251">
         <v>2559</v>
       </c>
@@ -22383,8 +23286,11 @@
       <c r="BJ110" s="176">
         <v>15205.95</v>
       </c>
+      <c r="BK110" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="111" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="251">
         <v>2559</v>
       </c>
@@ -22571,8 +23477,11 @@
       <c r="BJ111" s="176">
         <v>16133.29</v>
       </c>
+      <c r="BK111" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="112" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A112" s="251">
         <v>2559</v>
       </c>
@@ -22759,8 +23668,11 @@
       <c r="BJ112" s="176">
         <v>18536.59</v>
       </c>
+      <c r="BK112" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="113" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A113" s="251">
         <v>2559</v>
       </c>
@@ -22947,8 +23859,11 @@
       <c r="BJ113" s="176">
         <v>15298.45</v>
       </c>
+      <c r="BK113" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="114" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A114" s="251">
         <v>2559</v>
       </c>
@@ -23135,8 +24050,11 @@
       <c r="BJ114" s="176">
         <v>18775.150000000001</v>
       </c>
+      <c r="BK114" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="115" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A115" s="251">
         <v>2559</v>
       </c>
@@ -23323,8 +24241,11 @@
       <c r="BJ115" s="176">
         <v>19300.98</v>
       </c>
+      <c r="BK115" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="116" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="251">
         <v>2559</v>
       </c>
@@ -23511,8 +24432,11 @@
       <c r="BJ116" s="176">
         <v>18347.43</v>
       </c>
+      <c r="BK116" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="117" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="251">
         <v>2559</v>
       </c>
@@ -23699,8 +24623,11 @@
       <c r="BJ117" s="176">
         <v>18225.93</v>
       </c>
+      <c r="BK117" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="118" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A118" s="251">
         <v>2559</v>
       </c>
@@ -23887,8 +24814,11 @@
       <c r="BJ118" s="176">
         <v>20374.34</v>
       </c>
+      <c r="BK118" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="119" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A119" s="251">
         <v>2559</v>
       </c>
@@ -24075,8 +25005,11 @@
       <c r="BJ119" s="176">
         <v>20510.2</v>
       </c>
+      <c r="BK119" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row r="120" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A120" s="251">
         <v>2559</v>
       </c>
@@ -24263,8 +25196,11 @@
       <c r="BJ120" s="176">
         <v>20712.71</v>
       </c>
+      <c r="BK120" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="121" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="251">
         <v>2559</v>
       </c>
@@ -24451,8 +25387,11 @@
       <c r="BJ121" s="176">
         <v>19125.77</v>
       </c>
+      <c r="BK121" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="122" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A122" s="235">
         <v>2560</v>
       </c>
@@ -24627,8 +25566,11 @@
       <c r="BJ122" s="58">
         <v>15228.71</v>
       </c>
+      <c r="BK122" t="s">
+        <v>172</v>
+      </c>
     </row>
-    <row r="123" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A123" s="235">
         <v>2560</v>
       </c>
@@ -24803,8 +25745,11 @@
       <c r="BJ123" s="58">
         <v>16020.52</v>
       </c>
+      <c r="BK123" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="124" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A124" s="235">
         <v>2560</v>
       </c>
@@ -24979,8 +25924,11 @@
       <c r="BJ124" s="58">
         <v>19017.93</v>
       </c>
+      <c r="BK124" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="125" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A125" s="235">
         <v>2560</v>
       </c>
@@ -25155,8 +26103,11 @@
       <c r="BJ125" s="58">
         <v>13477.68</v>
       </c>
+      <c r="BK125" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="126" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A126" s="235">
         <v>2560</v>
       </c>
@@ -25331,8 +26282,11 @@
       <c r="BJ126" s="58">
         <v>19850.189999999999</v>
       </c>
+      <c r="BK126" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="127" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A127" s="235">
         <v>2560</v>
       </c>
@@ -25507,8 +26461,11 @@
       <c r="BJ127" s="58">
         <v>19722.21</v>
       </c>
+      <c r="BK127" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="128" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="235">
         <v>2560</v>
       </c>
@@ -25683,8 +26640,11 @@
       <c r="BJ128" s="58">
         <v>18191.5</v>
       </c>
+      <c r="BK128" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="129" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A129" s="235">
         <v>2560</v>
       </c>
@@ -25859,8 +26819,11 @@
       <c r="BJ129" s="58">
         <v>19875.2</v>
       </c>
+      <c r="BK129" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="130" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A130" s="235">
         <v>2560</v>
       </c>
@@ -26035,8 +26998,11 @@
       <c r="BJ130" s="58">
         <v>19466.73</v>
       </c>
+      <c r="BK130" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="131" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A131" s="235">
         <v>2560</v>
       </c>
@@ -26211,8 +27177,11 @@
       <c r="BJ131" s="58">
         <v>19459.77</v>
       </c>
+      <c r="BK131" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="132" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A132" s="235">
         <v>2560</v>
       </c>
@@ -26387,8 +27356,11 @@
       <c r="BJ132" s="58">
         <v>20141.7</v>
       </c>
+      <c r="BK132" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="133" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A133" s="235">
         <v>2560</v>
       </c>
@@ -26563,8 +27535,11 @@
       <c r="BJ133" s="58">
         <v>17995.490000000002</v>
       </c>
+      <c r="BK133" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="134" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A134" s="239">
         <v>2561</v>
       </c>
@@ -26743,8 +27718,11 @@
       <c r="BJ134" s="83">
         <v>17166.28</v>
       </c>
+      <c r="BK134" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="135" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A135" s="239">
         <v>2561</v>
       </c>
@@ -26923,8 +27901,11 @@
       <c r="BJ135" s="83">
         <v>14811.55</v>
       </c>
+      <c r="BK135" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="136" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A136" s="239">
         <v>2561</v>
       </c>
@@ -27103,8 +28084,11 @@
       <c r="BJ136" s="83">
         <v>17629.91</v>
       </c>
+      <c r="BK136" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="137" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A137" s="239">
         <v>2561</v>
       </c>
@@ -27283,8 +28267,11 @@
       <c r="BJ137" s="83">
         <v>14777.07</v>
       </c>
+      <c r="BK137" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="138" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A138" s="239">
         <v>2561</v>
       </c>
@@ -27463,8 +28450,11 @@
       <c r="BJ138" s="83">
         <v>18078.12</v>
       </c>
+      <c r="BK138" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="139" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A139" s="239">
         <v>2561</v>
       </c>
@@ -27643,8 +28633,11 @@
       <c r="BJ139" s="83">
         <v>17604.05</v>
       </c>
+      <c r="BK139" t="s">
+        <v>185</v>
+      </c>
     </row>
-    <row r="140" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A140" s="239">
         <v>2561</v>
       </c>
@@ -27823,8 +28816,11 @@
       <c r="BJ140" s="83">
         <v>17906.900000000001</v>
       </c>
+      <c r="BK140" t="s">
+        <v>186</v>
+      </c>
     </row>
-    <row r="141" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A141" s="239">
         <v>2561</v>
       </c>
@@ -28003,8 +28999,11 @@
       <c r="BJ141" s="83">
         <v>19512.52</v>
       </c>
+      <c r="BK141" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="142" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A142" s="239">
         <v>2561</v>
       </c>
@@ -28183,8 +29182,11 @@
       <c r="BJ142" s="83">
         <v>18046.12</v>
       </c>
+      <c r="BK142" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="143" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A143" s="239">
         <v>2561</v>
       </c>
@@ -28363,8 +29365,11 @@
       <c r="BJ143" s="83">
         <v>19866.91</v>
       </c>
+      <c r="BK143" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="144" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A144" s="239">
         <v>2561</v>
       </c>
@@ -28543,8 +29548,11 @@
       <c r="BJ144" s="83">
         <v>19988.79</v>
       </c>
+      <c r="BK144" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="145" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A145" s="239">
         <v>2561</v>
       </c>
@@ -28723,8 +29731,11 @@
       <c r="BJ145" s="83">
         <v>17648.37</v>
       </c>
+      <c r="BK145" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="146" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A146" s="243">
         <v>2562</v>
       </c>
@@ -28903,8 +29914,11 @@
       <c r="BJ146" s="110">
         <v>16289.75</v>
       </c>
+      <c r="BK146" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="147" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A147" s="243">
         <v>2562</v>
       </c>
@@ -29083,8 +30097,11 @@
       <c r="BJ147" s="110">
         <v>15071.12</v>
       </c>
+      <c r="BK147" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="148" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A148" s="243">
         <v>2562</v>
       </c>
@@ -29263,8 +30280,11 @@
       <c r="BJ148" s="110">
         <v>16802.86</v>
       </c>
+      <c r="BK148" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="149" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A149" s="243">
         <v>2562</v>
       </c>
@@ -29443,8 +30463,11 @@
       <c r="BJ149" s="110">
         <v>15175.4</v>
       </c>
+      <c r="BK149" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="150" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A150" s="243">
         <v>2562</v>
       </c>
@@ -29623,8 +30646,11 @@
       <c r="BJ150" s="110">
         <v>17662.03</v>
       </c>
+      <c r="BK150" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="151" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A151" s="243">
         <v>2562</v>
       </c>
@@ -29803,8 +30829,11 @@
       <c r="BJ151" s="110">
         <v>16080.92</v>
       </c>
+      <c r="BK151" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="152" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A152" s="243">
         <v>2562</v>
       </c>
@@ -29983,8 +31012,11 @@
       <c r="BJ152" s="110">
         <v>16607.72</v>
       </c>
+      <c r="BK152" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="153" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A153" s="243">
         <v>2562</v>
       </c>
@@ -30163,8 +31195,11 @@
       <c r="BJ153" s="110">
         <v>16471.13</v>
       </c>
+      <c r="BK153" t="s">
+        <v>197</v>
+      </c>
     </row>
-    <row r="154" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A154" s="243">
         <v>2562</v>
       </c>
@@ -30343,8 +31378,11 @@
       <c r="BJ154" s="110">
         <v>16963.400000000001</v>
       </c>
+      <c r="BK154" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="155" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A155" s="243">
         <v>2562</v>
       </c>
@@ -30523,8 +31561,11 @@
       <c r="BJ155" s="110">
         <v>18595.740000000002</v>
       </c>
+      <c r="BK155" t="s">
+        <v>199</v>
+      </c>
     </row>
-    <row r="156" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A156" s="243">
         <v>2562</v>
       </c>
@@ -30703,8 +31744,11 @@
       <c r="BJ156" s="110">
         <v>17162.22</v>
       </c>
+      <c r="BK156" t="s">
+        <v>200</v>
+      </c>
     </row>
-    <row r="157" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A157" s="243">
         <v>2562</v>
       </c>
@@ -30883,8 +31927,11 @@
       <c r="BJ157" s="110">
         <v>14700.88</v>
       </c>
+      <c r="BK157" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="158" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A158" s="253">
         <v>2563</v>
       </c>
@@ -31063,8 +32110,11 @@
       <c r="BJ158" s="127">
         <v>13364</v>
       </c>
+      <c r="BK158" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="159" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A159" s="253">
         <v>2563</v>
       </c>
@@ -31243,8 +32293,11 @@
       <c r="BJ159" s="127">
         <v>14814.27</v>
       </c>
+      <c r="BK159" t="s">
+        <v>201</v>
+      </c>
     </row>
-    <row r="160" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A160" s="253">
         <v>2563</v>
       </c>
@@ -31423,8 +32476,11 @@
       <c r="BJ160" s="127">
         <v>16252.57</v>
       </c>
+      <c r="BK160" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="161" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A161" s="253">
         <v>2563</v>
       </c>
@@ -31603,8 +32659,11 @@
       <c r="BJ161" s="127">
         <v>17642.599999999999</v>
       </c>
+      <c r="BK161" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="162" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A162" s="253">
         <v>2563</v>
       </c>
@@ -31783,8 +32842,11 @@
       <c r="BJ162" s="127">
         <v>17801.13</v>
       </c>
+      <c r="BK162" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="163" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A163" s="253">
         <v>2563</v>
       </c>
@@ -31963,8 +33025,11 @@
       <c r="BJ163" s="127">
         <v>17647.41</v>
       </c>
+      <c r="BK163" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="164" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A164" s="253">
         <v>2563</v>
       </c>
@@ -32143,8 +33208,11 @@
       <c r="BJ164" s="127">
         <v>16544.27</v>
       </c>
+      <c r="BK164" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="165" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A165" s="253">
         <v>2563</v>
       </c>
@@ -32323,8 +33391,11 @@
       <c r="BJ165" s="127">
         <v>16687.810000000001</v>
       </c>
+      <c r="BK165" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="166" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A166" s="253">
         <v>2563</v>
       </c>
@@ -32503,8 +33574,11 @@
       <c r="BJ166" s="127">
         <v>17062.88</v>
       </c>
+      <c r="BK166" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="167" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A167" s="253">
         <v>2563</v>
       </c>
@@ -32683,8 +33757,11 @@
       <c r="BJ167" s="127">
         <v>17901.79</v>
       </c>
+      <c r="BK167" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="168" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A168" s="253">
         <v>2563</v>
       </c>
@@ -32863,8 +33940,11 @@
       <c r="BJ168" s="127">
         <v>16373.64</v>
       </c>
+      <c r="BK168" t="s">
+        <v>209</v>
+      </c>
     </row>
-    <row r="169" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A169" s="253">
         <v>2563</v>
       </c>
@@ -33043,8 +34123,11 @@
       <c r="BJ169" s="127">
         <v>14693.26</v>
       </c>
+      <c r="BK169" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="170" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A170" s="255">
         <v>2564</v>
       </c>
@@ -33223,8 +34306,11 @@
       <c r="BJ170" s="165">
         <v>13186.45</v>
       </c>
+      <c r="BK170" t="s">
+        <v>211</v>
+      </c>
     </row>
-    <row r="171" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A171" s="255">
         <v>2564</v>
       </c>
@@ -33403,8 +34489,11 @@
       <c r="BJ171" s="165">
         <v>13317.76</v>
       </c>
+      <c r="BK171" t="s">
+        <v>212</v>
+      </c>
     </row>
-    <row r="172" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A172" s="255">
         <v>2564</v>
       </c>
@@ -33583,8 +34672,11 @@
       <c r="BJ172" s="165">
         <v>16536.53</v>
       </c>
+      <c r="BK172" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="173" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A173" s="255">
         <v>2564</v>
       </c>
@@ -33763,8 +34855,11 @@
       <c r="BJ173" s="165">
         <v>14891.98</v>
       </c>
+      <c r="BK173" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="174" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A174" s="255">
         <v>2564</v>
       </c>
@@ -33943,8 +35038,11 @@
       <c r="BJ174" s="165">
         <v>14870.49</v>
       </c>
+      <c r="BK174" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="175" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A175" s="255">
         <v>2564</v>
       </c>
@@ -34123,8 +35221,11 @@
       <c r="BJ175" s="165">
         <v>17446.96</v>
       </c>
+      <c r="BK175" t="s">
+        <v>215</v>
+      </c>
     </row>
-    <row r="176" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A176" s="255">
         <v>2564</v>
       </c>
@@ -34303,8 +35404,11 @@
       <c r="BJ176" s="165">
         <v>15894.17</v>
       </c>
+      <c r="BK176" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="177" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A177" s="255">
         <v>2564</v>
       </c>
@@ -34483,8 +35587,11 @@
       <c r="BJ177" s="165">
         <v>16024.79</v>
       </c>
+      <c r="BK177" t="s">
+        <v>217</v>
+      </c>
     </row>
-    <row r="178" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A178" s="255">
         <v>2564</v>
       </c>
@@ -34663,8 +35770,11 @@
       <c r="BJ178" s="165">
         <v>17563.68</v>
       </c>
+      <c r="BK178" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="179" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A179" s="255">
         <v>2564</v>
       </c>
@@ -34843,8 +35953,11 @@
       <c r="BJ179" s="165">
         <v>18628.79</v>
       </c>
+      <c r="BK179" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="180" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A180" s="255">
         <v>2564</v>
       </c>
@@ -35023,8 +36136,11 @@
       <c r="BJ180" s="165">
         <v>18670.96</v>
       </c>
+      <c r="BK180" t="s">
+        <v>219</v>
+      </c>
     </row>
-    <row r="181" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A181" s="255">
         <v>2564</v>
       </c>
@@ -35203,8 +36319,11 @@
       <c r="BJ181" s="165">
         <v>18186.98</v>
       </c>
+      <c r="BK181" t="s">
+        <v>220</v>
+      </c>
     </row>
-    <row r="182" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A182" s="237">
         <v>2565</v>
       </c>
@@ -35383,8 +36502,11 @@
       <c r="BJ182" s="71">
         <v>15984.2</v>
       </c>
+      <c r="BK182" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="183" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A183" s="237">
         <v>2565</v>
       </c>
@@ -35563,8 +36685,11 @@
       <c r="BJ183" s="71">
         <v>17619.38</v>
       </c>
+      <c r="BK183" t="s">
+        <v>221</v>
+      </c>
     </row>
-    <row r="184" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A184" s="237">
         <v>2565</v>
       </c>
@@ -35743,8 +36868,11 @@
       <c r="BJ184" s="71">
         <v>19233.55</v>
       </c>
+      <c r="BK184" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="185" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A185" s="237">
         <v>2565</v>
       </c>
@@ -35923,8 +37051,11 @@
       <c r="BJ185" s="71">
         <v>17366.38</v>
       </c>
+      <c r="BK185" t="s">
+        <v>223</v>
+      </c>
     </row>
-    <row r="186" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A186" s="237">
         <v>2565</v>
       </c>
@@ -36103,8 +37234,11 @@
       <c r="BJ186" s="71">
         <v>18732</v>
       </c>
+      <c r="BK186" t="s">
+        <v>224</v>
+      </c>
     </row>
-    <row r="187" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A187" s="237">
         <v>2565</v>
       </c>
@@ -36283,8 +37417,11 @@
       <c r="BJ187" s="71">
         <v>19982.939999999999</v>
       </c>
+      <c r="BK187" t="s">
+        <v>225</v>
+      </c>
     </row>
-    <row r="188" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A188" s="237">
         <v>2565</v>
       </c>
@@ -36463,8 +37600,11 @@
       <c r="BJ188" s="71">
         <v>19448.78</v>
       </c>
+      <c r="BK188" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="189" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A189" s="237">
         <v>2565</v>
       </c>
@@ -36643,8 +37783,11 @@
       <c r="BJ189" s="71">
         <v>20503.32</v>
       </c>
+      <c r="BK189" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="190" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A190" s="237">
         <v>2565</v>
       </c>
@@ -36823,8 +37966,11 @@
       <c r="BJ190" s="71">
         <v>21304.65</v>
       </c>
+      <c r="BK190" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="191" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A191" s="237">
         <v>2565</v>
       </c>
@@ -37003,8 +38149,11 @@
       <c r="BJ191" s="71">
         <v>19590.810000000001</v>
       </c>
+      <c r="BK191" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="192" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A192" s="237">
         <v>2565</v>
       </c>
@@ -37183,8 +38332,11 @@
       <c r="BJ192" s="71">
         <v>20400.349999999999</v>
       </c>
+      <c r="BK192" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="193" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A193" s="237">
         <v>2565</v>
       </c>
@@ -37363,8 +38515,11 @@
       <c r="BJ193" s="71">
         <v>18917.96</v>
       </c>
+      <c r="BK193" t="s">
+        <v>231</v>
+      </c>
     </row>
-    <row r="194" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A194" s="256">
         <v>2566</v>
       </c>
@@ -37547,8 +38702,11 @@
       <c r="BJ194" s="213">
         <v>14231.17</v>
       </c>
+      <c r="BK194" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="195" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A195" s="256">
         <v>2566</v>
       </c>
@@ -37731,8 +38889,11 @@
       <c r="BJ195" s="213">
         <v>15790.87</v>
       </c>
+      <c r="BK195" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="196" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A196" s="256">
         <v>2566</v>
       </c>
@@ -37915,8 +39076,11 @@
       <c r="BJ196" s="213">
         <v>18347.82</v>
       </c>
+      <c r="BK196" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="197" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A197" s="256">
         <v>2566</v>
       </c>
@@ -38099,8 +39263,11 @@
       <c r="BJ197" s="213">
         <v>15005.84</v>
       </c>
+      <c r="BK197" t="s">
+        <v>235</v>
+      </c>
     </row>
-    <row r="198" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A198" s="256">
         <v>2566</v>
       </c>
@@ -38283,8 +39450,11 @@
       <c r="BJ198" s="213">
         <v>18600.18</v>
       </c>
+      <c r="BK198" t="s">
+        <v>236</v>
+      </c>
     </row>
-    <row r="199" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A199" s="256">
         <v>2566</v>
       </c>
@@ -38467,8 +39637,11 @@
       <c r="BJ199" s="213">
         <v>17836.32</v>
       </c>
+      <c r="BK199" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="200" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A200" s="256">
         <v>2566</v>
       </c>
@@ -38651,8 +39824,11 @@
       <c r="BJ200" s="213">
         <v>17644.12</v>
       </c>
+      <c r="BK200" t="s">
+        <v>238</v>
+      </c>
     </row>
-    <row r="201" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A201" s="256">
         <v>2566</v>
       </c>
@@ -38835,8 +40011,11 @@
       <c r="BJ201" s="213">
         <v>17943.28</v>
       </c>
+      <c r="BK201" t="s">
+        <v>239</v>
+      </c>
     </row>
-    <row r="202" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A202" s="256">
         <v>2566</v>
       </c>
@@ -39019,8 +40198,11 @@
       <c r="BJ202" s="213">
         <v>18910.919999999998</v>
       </c>
+      <c r="BK202" t="s">
+        <v>240</v>
+      </c>
     </row>
-    <row r="203" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A203" s="256">
         <v>2566</v>
       </c>
@@ -39203,8 +40385,11 @@
       <c r="BJ203" s="213">
         <v>19164.41</v>
       </c>
+      <c r="BK203" t="s">
+        <v>241</v>
+      </c>
     </row>
-    <row r="204" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A204" s="256">
         <v>2566</v>
       </c>
@@ -39387,8 +40572,11 @@
       <c r="BJ204" s="213">
         <v>20329.53</v>
       </c>
+      <c r="BK204" t="s">
+        <v>242</v>
+      </c>
     </row>
-    <row r="205" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A205" s="256">
         <v>2566</v>
       </c>
@@ -39571,8 +40759,11 @@
       <c r="BJ205" s="213">
         <v>17481.09</v>
       </c>
+      <c r="BK205" t="s">
+        <v>243</v>
+      </c>
     </row>
-    <row r="206" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A206" s="243">
         <v>2567</v>
       </c>
@@ -39751,8 +40942,11 @@
       <c r="BJ206" s="110">
         <v>17136.61</v>
       </c>
+      <c r="BK206" t="s">
+        <v>244</v>
+      </c>
     </row>
-    <row r="207" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A207" s="243">
         <v>2567</v>
       </c>
@@ -39931,8 +41125,11 @@
       <c r="BJ207" s="110">
         <v>19243.61</v>
       </c>
+      <c r="BK207" t="s">
+        <v>245</v>
+      </c>
     </row>
-    <row r="208" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A208" s="243">
         <v>2567</v>
       </c>
@@ -40111,8 +41308,11 @@
       <c r="BJ208" s="110">
         <v>21220.400000000001</v>
       </c>
+      <c r="BK208" t="s">
+        <v>246</v>
+      </c>
     </row>
-    <row r="209" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A209" s="243">
         <v>2567</v>
       </c>
@@ -40291,8 +41491,11 @@
       <c r="BJ209" s="110">
         <v>18506.32</v>
       </c>
+      <c r="BK209" t="s">
+        <v>247</v>
+      </c>
     </row>
-    <row r="210" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A210" s="243">
         <v>2567</v>
       </c>
@@ -40471,8 +41674,11 @@
       <c r="BJ210" s="110">
         <v>20788.13</v>
       </c>
+      <c r="BK210" t="s">
+        <v>248</v>
+      </c>
     </row>
-    <row r="211" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A211" s="243">
         <v>2567</v>
       </c>
@@ -40651,8 +41857,11 @@
       <c r="BJ211" s="110">
         <v>18684.82</v>
       </c>
+      <c r="BK211" t="s">
+        <v>249</v>
+      </c>
     </row>
-    <row r="212" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A212" s="243">
         <v>2567</v>
       </c>
@@ -40831,8 +42040,11 @@
       <c r="BJ212" s="110">
         <v>21648.31</v>
       </c>
+      <c r="BK212" t="s">
+        <v>244</v>
+      </c>
     </row>
-    <row r="213" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A213" s="243">
         <v>2567</v>
       </c>
@@ -41011,8 +42223,11 @@
       <c r="BJ213" s="110">
         <v>22361.02</v>
       </c>
+      <c r="BK213" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="214" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A214" s="243">
         <v>2567</v>
       </c>
@@ -41191,8 +42406,11 @@
       <c r="BJ214" s="110">
         <v>20545.61</v>
       </c>
+      <c r="BK214" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="215" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A215" s="243">
         <v>2567</v>
       </c>
@@ -41371,8 +42589,11 @@
       <c r="BJ215" s="110">
         <v>20527.189999999999</v>
       </c>
+      <c r="BK215" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="216" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A216" s="243">
         <v>2567</v>
       </c>
@@ -41551,8 +42772,11 @@
       <c r="BJ216" s="110">
         <v>19657.150000000001</v>
       </c>
+      <c r="BK216" t="s">
+        <v>250</v>
+      </c>
     </row>
-    <row r="217" spans="1:62" ht="21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:63" ht="21" x14ac:dyDescent="0.3">
       <c r="A217" s="243">
         <v>2567</v>
       </c>
@@ -41731,6 +42955,9 @@
       <c r="BJ217" s="229">
         <v>19742.45</v>
       </c>
+      <c r="BK217" t="s">
+        <v>251</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
